--- a/data/original/Macrofauna.xlsx
+++ b/data/original/Macrofauna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{2A00E302-A0AD-4B5E-B08D-80B5C5F1F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62CECE60-B085-45F9-B08E-3D7070EF4EA4}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{2A00E302-A0AD-4B5E-B08D-80B5C5F1F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F48AAA5-63CC-4752-B08F-75B0F955F4D6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{D15CD1CB-A2B4-4F27-8D5B-F937FFD8AB21}"/>
   </bookViews>
@@ -207,6 +207,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,12 +248,27 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -381,20 +399,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -408,18 +412,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8D400ED-0B03-4AF7-B29E-D99D54423096}" name="Tabla6" displayName="Tabla6" ref="A1:H821" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H821" xr:uid="{E8D400ED-0B03-4AF7-B29E-D99D54423096}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{82B599DA-B129-40FD-84E6-F2824019BA8E}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C0E3A2AF-7709-4547-86D3-9B567E0AF99A}" name="Field" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{36EB7F0B-F9AC-4C30-AA8C-21971CA4E246}" name="Treatment" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C1E861BC-6FDD-425A-AA75-5C403B4258F4}" name="Ganguil" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D05AD193-39A0-4BE4-9FDD-32D0F040F85A}" name="Taxa" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{69C57DAA-A0BD-407E-B78B-D109F477092B}" name="Stage" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5757236F-8834-4684-9C1F-84A554860B1C}" name="Abundance" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5E8C65C5-53D9-480D-BF3F-2170CB2AA73A}" name="Observations" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{82B599DA-B129-40FD-84E6-F2824019BA8E}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C0E3A2AF-7709-4547-86D3-9B567E0AF99A}" name="Field" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{36EB7F0B-F9AC-4C30-AA8C-21971CA4E246}" name="Treatment" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C1E861BC-6FDD-425A-AA75-5C403B4258F4}" name="Ganguil" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D05AD193-39A0-4BE4-9FDD-32D0F040F85A}" name="Taxa" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{69C57DAA-A0BD-407E-B78B-D109F477092B}" name="Stage" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5757236F-8834-4684-9C1F-84A554860B1C}" name="Abundance" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5E8C65C5-53D9-480D-BF3F-2170CB2AA73A}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,7 +733,7 @@
   <dimension ref="A1:H821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E826" sqref="E826"/>
+      <selection activeCell="A2" sqref="A2:A821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
